--- a/data/trans_camb/PCS12_SP_R3-Edad-trans_camb.xlsx
+++ b/data/trans_camb/PCS12_SP_R3-Edad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-1.603971847725752</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-0.7235381243106693</v>
+        <v>-0.7235381243106687</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.248438196387997</v>
+        <v>-3.152109265999618</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.705189309409747</v>
+        <v>-4.521633259267121</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.88011507917653</v>
+        <v>-5.147876817408802</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.969504608380529</v>
+        <v>-1.967482639965835</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.485979300815779</v>
+        <v>-3.91384433073341</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.576129422194223</v>
+        <v>-2.545922670823661</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.645427495619674</v>
+        <v>-1.659430512469314</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.36369297510669</v>
+        <v>-3.377281505170437</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.833114486994475</v>
+        <v>-3.151377847825525</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.840092085333378</v>
+        <v>1.765421332656268</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.247127970671683</v>
+        <v>-0.3111259428916233</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.199855819572213</v>
+        <v>-0.2964927075087295</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.483050086411156</v>
+        <v>4.366862869953167</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.389790726591938</v>
+        <v>1.899965599350032</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.057429424658956</v>
+        <v>6.919609278169207</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.052019600534258</v>
+        <v>2.282143713007704</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2169700260527399</v>
+        <v>0.2159398050792765</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.174178827447233</v>
+        <v>2.259970374135498</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.3327408456866576</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.1500965791332478</v>
+        <v>-0.1500965791332477</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5770529721159688</v>
+        <v>-0.5695774367017608</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.8390160443334644</v>
+        <v>-0.8524915289683995</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.9278799475460652</v>
+        <v>-0.9226439476284236</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3016390513602869</v>
+        <v>-0.2887586514947074</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5223379133003868</v>
+        <v>-0.5380399560166956</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4050610938199591</v>
+        <v>-0.4035307218104521</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2894607352635884</v>
+        <v>-0.2904613219326773</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5952690941921374</v>
+        <v>-0.5858433452779082</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.5598369043905856</v>
+        <v>-0.5630621431847322</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.6461208180859446</v>
+        <v>0.6191799672818363</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.01879403230252188</v>
+        <v>-0.04729046498971141</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.3056466183074956</v>
+        <v>0.08357072373868192</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.13138361015395</v>
+        <v>1.108439197582581</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6751173356493815</v>
+        <v>0.5244734959141487</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.620738819881696</v>
+        <v>1.75562062680322</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5240698157501471</v>
+        <v>0.5638630091691947</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.06775202642543444</v>
+        <v>0.08969788060398509</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.481628973001866</v>
+        <v>0.6173836147061738</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.4154224079913145</v>
+        <v>-0.3859965616254674</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.601893565016936</v>
+        <v>-1.682798009747613</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.95065655520756</v>
+        <v>1.902681043898113</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.547322339969645</v>
+        <v>-5.667138313927737</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-5.817049445169823</v>
+        <v>-5.637010444467625</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-5.448594505321766</v>
+        <v>-5.087352811492355</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.864425208856164</v>
+        <v>-1.915934712544673</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.625488825221829</v>
+        <v>-2.802525388210504</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.4621417241911782</v>
+        <v>-0.617410812505871</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.827300783316954</v>
+        <v>4.448353825204678</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.047178348598496</v>
+        <v>3.017795481436307</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.186203717368759</v>
+        <v>9.401271132205355</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6616388009339029</v>
+        <v>0.8210638477974782</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8250173847548188</v>
+        <v>0.8972634601278731</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.178003453316155</v>
+        <v>1.463277369696032</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.061051943814543</v>
+        <v>2.010835323503001</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.182688893905161</v>
+        <v>1.191428573506155</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.386640186133953</v>
+        <v>4.418161152354162</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.08633690393695505</v>
+        <v>-0.08833017448232226</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3266577708670995</v>
+        <v>-0.33230010378378</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.3607399459761517</v>
+        <v>0.3442583696527738</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4973418868657418</v>
+        <v>-0.5052422882584325</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.522832536859499</v>
+        <v>-0.528390569085999</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4938439067577827</v>
+        <v>-0.4823814546974793</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2382205716053402</v>
+        <v>-0.256730049571572</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3552015890968638</v>
+        <v>-0.3696625066287167</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.06739326808936455</v>
+        <v>-0.09078994422407417</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.508861089266545</v>
+        <v>1.373016593671243</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.9750026144125412</v>
+        <v>0.9656977426450859</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.806333407781973</v>
+        <v>2.718815823220972</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.09539330821765278</v>
+        <v>0.1154071835610225</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.107908046845653</v>
+        <v>0.1134290824217164</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1611653590952861</v>
+        <v>0.1886551079684843</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3606738239478445</v>
+        <v>0.3561842596492731</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2128460587944239</v>
+        <v>0.2226008050186851</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.7775561860793206</v>
+        <v>0.777426786872613</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>0.4550795983013931</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4.133054224679755</v>
+        <v>4.13305422467975</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>1.098574876188582</v>
@@ -1092,7 +1092,7 @@
         <v>-1.669631680410522</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>2.451035309848974</v>
+        <v>2.451035309848977</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.9787879142219293</v>
+        <v>-0.8231829734229525</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.164656018662234</v>
+        <v>-2.492482934191976</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9323571012906894</v>
+        <v>0.9230583725374492</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.687598186170346</v>
+        <v>-2.961960677022266</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-6.883285830109517</v>
+        <v>-7.278433417218628</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.349887323352821</v>
+        <v>-3.0396969651813</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.05980852327349</v>
+        <v>-0.7474313750311792</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.874972201284397</v>
+        <v>-3.810599480975246</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.003081072181204664</v>
+        <v>0.04649801079568729</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.070577309317127</v>
+        <v>5.10525785324906</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.106469267439035</v>
+        <v>3.339792247497401</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.305613745264049</v>
+        <v>7.70807417900537</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.923339498165174</v>
+        <v>4.722028663476694</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.08680590527698866</v>
+        <v>-0.3290997145149119</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.321181991377604</v>
+        <v>4.48757892878417</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.066152371511418</v>
+        <v>4.426551710503174</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.8282496565956708</v>
+        <v>0.6958405142426919</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.980507609511206</v>
+        <v>5.26082719211062</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.06576906969153229</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.597317771124992</v>
+        <v>0.5973177711249912</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.07959920181194545</v>
@@ -1197,7 +1197,7 @@
         <v>-0.1591239722367277</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.233595516407398</v>
+        <v>0.2335955164073982</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1339142524843203</v>
+        <v>-0.09544565912492767</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2667790565175996</v>
+        <v>-0.3107388150691693</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.1087651941665976</v>
+        <v>0.1122138855168369</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1704617414926334</v>
+        <v>-0.188297237692605</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4413466980741876</v>
+        <v>-0.456173472721788</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1484492236921317</v>
+        <v>-0.1931173211212261</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.09339873596688929</v>
+        <v>-0.06568419781742424</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3389205231859312</v>
+        <v>-0.3347757513339263</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.006007113627090539</v>
+        <v>0.003538075212964544</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.8833618745081311</v>
+        <v>0.9288484566816002</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.5589049064610059</v>
+        <v>0.6151718807617136</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.277790534304786</v>
+        <v>1.397437045458169</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.4091971711545096</v>
+        <v>0.3900446445029968</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.02599570356527687</v>
+        <v>-0.0272893053376248</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.372920075566605</v>
+        <v>0.379396233605324</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4315876642793036</v>
+        <v>0.4844938245965854</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.08383790164182613</v>
+        <v>0.07263785774235014</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.5450222088027522</v>
+        <v>0.5877032616944574</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.166996660152131</v>
+        <v>-2.285085743107081</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.7123459384234618</v>
+        <v>-0.3900305224785174</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.301049548716899</v>
+        <v>4.189503180622002</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-9.373011004842443</v>
+        <v>-9.436659130870337</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-10.12562233074275</v>
+        <v>-10.08499218345656</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-4.813014013628606</v>
+        <v>-4.24052780087679</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-4.855049127944212</v>
+        <v>-4.527956521394859</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-4.17363041408344</v>
+        <v>-4.119153113081096</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.496719140703604</v>
+        <v>1.394363378245072</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.541418929397594</v>
+        <v>5.792296229426505</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.705838437277672</v>
+        <v>7.83429434017935</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>12.90662851986158</v>
+        <v>12.85538455758822</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2541500549204453</v>
+        <v>0.8081101598273479</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.1097651522601557</v>
+        <v>0.1181652267661583</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.362253458304535</v>
+        <v>4.264990875985567</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.913999394439887</v>
+        <v>1.849893286162368</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.426040570835335</v>
+        <v>2.359154998344083</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>7.609020817972262</v>
+        <v>7.427816298702488</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1668970170561558</v>
+        <v>-0.1716610092366767</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.04264480394315332</v>
+        <v>-0.03014494873612883</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3296523131715779</v>
+        <v>0.2873774144630752</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3505779689827475</v>
+        <v>-0.3511195562937406</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3812225895705387</v>
+        <v>-0.3726682230586838</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1729015032958756</v>
+        <v>-0.1553733112912262</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2430907745998827</v>
+        <v>-0.231728452364815</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2137639272458583</v>
+        <v>-0.2115472876206599</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.06708836686720029</v>
+        <v>0.07326388745928157</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.6035472820226437</v>
+        <v>0.6088628764978663</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.8297025052326644</v>
+        <v>0.8320991715004966</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.443832632834465</v>
+        <v>1.352755746712064</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.007288904941024521</v>
+        <v>0.03697834647854855</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.005155371272186291</v>
+        <v>0.002542607736886678</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2072105952032657</v>
+        <v>0.2028987351684722</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1225531744859056</v>
+        <v>0.114830386708996</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1583331467744967</v>
+        <v>0.1441363051567182</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4804030450031077</v>
+        <v>0.4688329064332943</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>2.795396299094183</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>4.212733387741391</v>
+        <v>4.212733387741386</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>2.972038526813081</v>
@@ -1520,7 +1520,7 @@
         <v>-0.824679252748739</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>2.922449218902506</v>
+        <v>2.922449218902512</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-11.1373683946007</v>
+        <v>-11.19327828189548</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-10.7490272196759</v>
+        <v>-10.99131849807126</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-4.371014911268322</v>
+        <v>-4.438533860705365</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.783557352054189</v>
+        <v>3.168265083121388</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-3.839690142587396</v>
+        <v>-3.458867652322512</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-1.101502358358354</v>
+        <v>-2.051719298037683</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.988033747984827</v>
+        <v>-2.065176569948948</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-5.166967819198554</v>
+        <v>-5.394347366760872</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-1.101381647165732</v>
+        <v>-1.22798451579003</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.209812206659184</v>
+        <v>0.8594638797048335</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.615299711093401</v>
+        <v>1.088365568765499</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7.816019175884187</v>
+        <v>7.189811862939314</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>17.35002479264482</v>
+        <v>16.8999098707201</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>9.209178114062002</v>
+        <v>9.665627679762482</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>9.832108307644658</v>
+        <v>9.161344957455176</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>7.422857023077793</v>
+        <v>7.422100941964254</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>4.034951605506918</v>
+        <v>3.600387100504774</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>6.966093586908443</v>
+        <v>6.824040640109971</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.08337664768184791</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1256507306534992</v>
+        <v>0.125650730653499</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.09551712748515882</v>
@@ -1625,7 +1625,7 @@
         <v>-0.02650402833224138</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.09392339705304553</v>
+        <v>0.09392339705304571</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.3499414557889836</v>
+        <v>-0.3532304945948813</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3350098838267421</v>
+        <v>-0.3496227664331595</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1327698966555137</v>
+        <v>-0.1343612795089293</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.105804535663818</v>
+        <v>0.08564667879664976</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1050756230177912</v>
+        <v>-0.09238980553911398</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.03020217069808039</v>
+        <v>-0.05345201898750394</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.05798625443360113</v>
+        <v>-0.06159763758313221</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1561432133149429</v>
+        <v>-0.1620783599947947</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.03107028767568478</v>
+        <v>-0.03643542240114892</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.05718534706138046</v>
+        <v>0.0291779383510854</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.06385762030142199</v>
+        <v>0.03474258745045545</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.3000362218150058</v>
+        <v>0.2861116591443915</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.5778662095673039</v>
+        <v>0.5559241968189246</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.3031337399812377</v>
+        <v>0.3189679158095095</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3392972774801116</v>
+        <v>0.3101001972320916</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2611425829044098</v>
+        <v>0.2538907802504785</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1458543817718605</v>
+        <v>0.1247394728862095</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.244204540947892</v>
+        <v>0.2311646294762473</v>
       </c>
     </row>
     <row r="34">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-3.400659234829581</v>
+        <v>-4.265422319193981</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-12.78798026205206</v>
+        <v>-11.84449201741311</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-13.8284050154767</v>
+        <v>-14.12851769508796</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-7.391613571212108</v>
+        <v>-7.752273868036934</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-15.67538459297916</v>
+        <v>-16.03478835570624</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-19.32029190967292</v>
+        <v>-19.59648453046727</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-4.25084164226333</v>
+        <v>-3.394688609759978</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-12.52575822292402</v>
+        <v>-12.19344021187694</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-15.05481287277809</v>
+        <v>-15.36984320968044</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>13.34055170445149</v>
+        <v>12.77468443572566</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>2.260233870075085</v>
+        <v>2.93264704969143</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-0.3149193934345781</v>
+        <v>-0.4499408893748861</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>7.852498549074372</v>
+        <v>7.256393693214893</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-1.271676880384692</v>
+        <v>-1.68405875650149</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-7.325287375126649</v>
+        <v>-7.707148660147284</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>7.531099620684781</v>
+        <v>7.702694634030665</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-1.876679892232361</v>
+        <v>-1.862127179794093</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-5.694441293493247</v>
+        <v>-6.266335991416878</v>
       </c>
     </row>
     <row r="37">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.08487891869182224</v>
+        <v>-0.09601766045140915</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.3051136146186047</v>
+        <v>-0.2853293628385838</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.3190265783136167</v>
+        <v>-0.3311514050773428</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.1143410643725449</v>
+        <v>-0.1176259785736576</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.2418177926182699</v>
+        <v>-0.2519583021799594</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.2979028552862735</v>
+        <v>-0.3013697058133604</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.08029832554722226</v>
+        <v>-0.06537466393894012</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.2354863401698653</v>
+        <v>-0.2293716612317675</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.2841537022816196</v>
+        <v>-0.2883940778434326</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.3893636144138137</v>
+        <v>0.3724948497088057</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.07393560744249295</v>
+        <v>0.09296983905110848</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.006872699592941738</v>
+        <v>-0.01095386735876952</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.1368434359833972</v>
+        <v>0.1253800727333597</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.02224121083072732</v>
+        <v>-0.02740038027421155</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.1292690193021675</v>
+        <v>-0.1380301071704342</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1561412449989416</v>
+        <v>0.1596098919597913</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.03859353591939299</v>
+        <v>-0.03915850495813384</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.1180710164966851</v>
+        <v>-0.1327138032539637</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-5.424411742883805</v>
+        <v>-5.764323470261544</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-13.39079019569363</v>
+        <v>-14.13250840682528</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-16.98715952373686</v>
+        <v>-17.64412252084969</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-2.852250238453794</v>
+        <v>-3.558118442600434</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-12.37153369417915</v>
+        <v>-12.00398189072111</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-7.395976967425459</v>
+        <v>-7.840092104357015</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-2.465456073909271</v>
+        <v>-2.296730669911913</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-11.1717210346283</v>
+        <v>-10.91115614500763</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-10.07577078040484</v>
+        <v>-10.2766929858927</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>11.9095650959178</v>
+        <v>11.86616108595311</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>3.470465273508311</v>
+        <v>2.973322873081221</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-1.705574082621333</v>
+        <v>-1.601031065857802</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>8.87967490904018</v>
+        <v>8.867924485839024</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.5264733076735043</v>
+        <v>1.23060218807388</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>2.876354258165118</v>
+        <v>2.624895919383667</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>7.794241473057648</v>
+        <v>7.528416953089219</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-0.8704571580115685</v>
+        <v>-0.1464463674042502</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-1.356315624795468</v>
+        <v>-1.179020220836902</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.07839571862246941</v>
+        <v>-0.08253205808603352</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.1888773613167142</v>
+        <v>-0.1970847001082199</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.2387158296421589</v>
+        <v>-0.2476295301825849</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.03362645793847426</v>
+        <v>-0.0411780235633178</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1499220340483822</v>
+        <v>-0.1463853302448712</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.08823022007225552</v>
+        <v>-0.09235788094761363</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.031259131670013</v>
+        <v>-0.02928748116549226</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.1419906494700039</v>
+        <v>-0.1407994260345234</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.1303603298188544</v>
+        <v>-0.1311125890962246</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.1955666145265813</v>
+        <v>0.1912893819144448</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.05733305124196916</v>
+        <v>0.04614435861686213</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.02745500048557634</v>
+        <v>-0.02456891906322211</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.1164310086377735</v>
+        <v>0.1150058019402826</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.004870445662139848</v>
+        <v>0.01632059735019101</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.03865638518546447</v>
+        <v>0.0336063669907077</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1080384190730786</v>
+        <v>0.1033619158718149</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.01151394183898343</v>
+        <v>-0.002588596268748215</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.01931541183300011</v>
+        <v>-0.01694672125470427</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>0.8855076472124496</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>5.359872882654665</v>
+        <v>5.359872882654668</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>1.947626893096144</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.1767882030215937</v>
+        <v>0.2740234042855134</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.7173519045420093</v>
+        <v>-0.7347888571140629</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>3.518428827301654</v>
+        <v>3.319199351395594</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-0.2964589550229607</v>
+        <v>-0.3433329502771088</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-3.108656739314462</v>
+        <v>-3.186828759853976</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>0.9764183402867672</v>
+        <v>1.069503142525908</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>0.6738361243809671</v>
+        <v>0.6537281013929498</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-1.531306428026426</v>
+        <v>-1.463494651621637</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>2.931191423218285</v>
+        <v>2.868157702731832</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>3.95316134842203</v>
+        <v>3.902976882367102</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>2.803473755734023</v>
+        <v>2.728535711896993</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>7.203986882244378</v>
+        <v>6.99548202093309</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>4.107281118693849</v>
+        <v>4.103351166892195</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>1.218305270938025</v>
+        <v>1.101280545515561</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>5.104397608764709</v>
+        <v>5.126288245974645</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>3.478364685287929</v>
+        <v>3.62341833009647</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>1.416755780637549</v>
+        <v>1.437177693863172</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>5.621107965895368</v>
+        <v>5.686744223029261</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>0.05604632325575269</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.3392417548698307</v>
+        <v>0.3392417548698309</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.07160937246665663</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.01045099338970387</v>
+        <v>0.01703627919177348</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.04652313553805554</v>
+        <v>-0.04399538495871776</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.2111815207353683</v>
+        <v>0.1968503259744641</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.009888855688663581</v>
+        <v>-0.01319934641342834</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.1109457489840034</v>
+        <v>-0.1141916043893948</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.03507646454872139</v>
+        <v>0.03807656430751655</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.03034676536513298</v>
+        <v>0.02920977148579089</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.06867884132542047</v>
+        <v>-0.06520483670852073</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.1332523500414848</v>
+        <v>0.1276232312219192</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.2662596410325039</v>
+        <v>0.2657365396812272</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.1894481395601813</v>
+        <v>0.1819509260219157</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.4851348045914403</v>
+        <v>0.4691248855670914</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.1589849424207679</v>
+        <v>0.1543372037658844</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.04669749938636088</v>
+        <v>0.04228639573748089</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.1977556628717791</v>
+        <v>0.1953524402953872</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.1674084972195004</v>
+        <v>0.1734987694801216</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.0672690109578076</v>
+        <v>0.06884848510313414</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.2693697849993802</v>
+        <v>0.2729601875705007</v>
       </c>
     </row>
     <row r="52">
